--- a/Excel/EquipQiangHuaConfig.xlsx
+++ b/Excel/EquipQiangHuaConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB1885-397F-4034-A5E9-899F68692E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5537F50D-BF64-4EA5-9AD0-53972FF4DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
@@ -393,9 +393,6 @@
     <t>项链部位</t>
   </si>
   <si>
-    <t>ItemSubType</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -502,6 +499,10 @@
   </si>
   <si>
     <t>10010085;500</t>
+  </si>
+  <si>
+    <t>ItemSubType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1942,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IF148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="M138" sqref="M138:M148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -1996,10 +1997,10 @@
         <v>5</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="3:240" ht="20.100000000000001" customHeight="1">
@@ -2034,10 +2035,10 @@
         <v>7</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="3:240" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2072,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>21</v>
@@ -2101,7 +2102,7 @@
         <v>30000</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="7">
         <v>0</v>
@@ -2110,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="12">
         <v>0.05</v>
@@ -2139,7 +2140,7 @@
         <v>45000</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7">
         <v>0.02</v>
@@ -2148,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12">
         <v>0.05</v>
@@ -2177,7 +2178,7 @@
         <v>60000</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7">
         <v>0.04</v>
@@ -2186,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="12">
         <v>0.04</v>
@@ -2216,7 +2217,7 @@
         <v>75000</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7">
         <v>0.06</v>
@@ -2225,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="12">
         <v>0.04</v>
@@ -2255,7 +2256,7 @@
         <v>90000</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7">
         <v>0.08</v>
@@ -2264,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="12">
         <v>0.03</v>
@@ -2294,7 +2295,7 @@
         <v>120000</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7">
         <v>0.1</v>
@@ -2303,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="12">
         <v>0.03</v>
@@ -2333,7 +2334,7 @@
         <v>150000</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7">
         <v>0.125</v>
@@ -2342,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="12">
         <v>0.02</v>
@@ -2372,7 +2373,7 @@
         <v>180000</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7">
         <v>0.15</v>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="12">
         <v>0.02</v>
@@ -2411,7 +2412,7 @@
         <v>240000</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="7">
         <v>0.17499999999999999</v>
@@ -2420,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="12">
         <v>0.01</v>
@@ -2450,7 +2451,7 @@
         <v>300000</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7">
         <v>0.2</v>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="12">
         <v>0.01</v>
@@ -2489,7 +2490,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7">
         <v>0.25</v>
@@ -2498,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="12">
         <v>0.01</v>
@@ -2528,7 +2529,7 @@
         <v>15000</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="7">
         <v>0</v>
@@ -2537,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" s="12">
         <v>0.05</v>
@@ -2566,7 +2567,7 @@
         <v>22500</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18" s="7">
         <v>0.02</v>
@@ -2575,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="12">
         <v>0.05</v>
@@ -2604,7 +2605,7 @@
         <v>30000</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7">
         <v>0.04</v>
@@ -2613,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="12">
         <v>0.04</v>
@@ -2642,7 +2643,7 @@
         <v>37500</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" s="7">
         <v>0.06</v>
@@ -2651,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" s="12">
         <v>0.04</v>
@@ -2680,7 +2681,7 @@
         <v>45000</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7">
         <v>0.08</v>
@@ -2689,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" s="12">
         <v>0.03</v>
@@ -2718,7 +2719,7 @@
         <v>60000</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="7">
         <v>0.1</v>
@@ -2727,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="12">
         <v>0.03</v>
@@ -2756,7 +2757,7 @@
         <v>75000</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7">
         <v>0.125</v>
@@ -2765,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23" s="12">
         <v>0.02</v>
@@ -2794,7 +2795,7 @@
         <v>90000</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K24" s="7">
         <v>0.15</v>
@@ -2803,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="12">
         <v>0.02</v>
@@ -2832,7 +2833,7 @@
         <v>120000</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K25" s="7">
         <v>0.17499999999999999</v>
@@ -2841,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" s="12">
         <v>0.01</v>
@@ -2870,7 +2871,7 @@
         <v>150000</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26" s="7">
         <v>0.2</v>
@@ -2879,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" s="12">
         <v>0.01</v>
@@ -2908,7 +2909,7 @@
         <v>27</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K27" s="7">
         <v>0.25</v>
@@ -2917,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" s="12">
         <v>0.01</v>
@@ -2946,7 +2947,7 @@
         <v>12000</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K28" s="7">
         <v>0</v>
@@ -2955,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N28" s="12">
         <v>0.05</v>
@@ -2984,7 +2985,7 @@
         <v>18000</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7">
         <v>0.02</v>
@@ -2993,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="12">
         <v>0.05</v>
@@ -3022,7 +3023,7 @@
         <v>24000</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7">
         <v>0.04</v>
@@ -3031,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" s="12">
         <v>0.04</v>
@@ -3060,7 +3061,7 @@
         <v>30000</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="7">
         <v>0.06</v>
@@ -3069,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31" s="12">
         <v>0.04</v>
@@ -3098,7 +3099,7 @@
         <v>36000</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="7">
         <v>0.08</v>
@@ -3107,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" s="12">
         <v>0.03</v>
@@ -3136,7 +3137,7 @@
         <v>48000</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33" s="7">
         <v>0.1</v>
@@ -3145,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33" s="12">
         <v>0.03</v>
@@ -3174,7 +3175,7 @@
         <v>60000</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34" s="7">
         <v>0.125</v>
@@ -3183,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="12">
         <v>0.02</v>
@@ -3212,7 +3213,7 @@
         <v>72000</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35" s="7">
         <v>0.15</v>
@@ -3221,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" s="12">
         <v>0.02</v>
@@ -3250,7 +3251,7 @@
         <v>96000</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36" s="7">
         <v>0.17499999999999999</v>
@@ -3259,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" s="12">
         <v>0.01</v>
@@ -3288,7 +3289,7 @@
         <v>120000</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37" s="7">
         <v>0.2</v>
@@ -3297,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" s="12">
         <v>0.01</v>
@@ -3326,7 +3327,7 @@
         <v>29</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38" s="7">
         <v>0.25</v>
@@ -3335,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="12">
         <v>0.01</v>
@@ -3364,7 +3365,7 @@
         <v>8000</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7">
         <v>0</v>
@@ -3373,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N39" s="12">
         <v>0.05</v>
@@ -3402,7 +3403,7 @@
         <v>12000</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K40" s="7">
         <v>0.02</v>
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" s="12">
         <v>0.05</v>
@@ -3440,7 +3441,7 @@
         <v>16000</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K41" s="7">
         <v>0.04</v>
@@ -3449,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" s="12">
         <v>0.04</v>
@@ -3478,7 +3479,7 @@
         <v>20000</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42" s="7">
         <v>0.06</v>
@@ -3487,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" s="12">
         <v>0.04</v>
@@ -3516,7 +3517,7 @@
         <v>24000</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K43" s="7">
         <v>0.08</v>
@@ -3525,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43" s="12">
         <v>0.03</v>
@@ -3554,7 +3555,7 @@
         <v>32000</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K44" s="7">
         <v>0.1</v>
@@ -3563,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44" s="12">
         <v>0.03</v>
@@ -3592,7 +3593,7 @@
         <v>40000</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K45" s="7">
         <v>0.125</v>
@@ -3601,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45" s="12">
         <v>0.02</v>
@@ -3630,7 +3631,7 @@
         <v>48000</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46" s="7">
         <v>0.15</v>
@@ -3639,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" s="12">
         <v>0.02</v>
@@ -3668,7 +3669,7 @@
         <v>64000</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47" s="7">
         <v>0.17499999999999999</v>
@@ -3677,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" s="12">
         <v>0.01</v>
@@ -3706,7 +3707,7 @@
         <v>80000</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K48" s="7">
         <v>0.2</v>
@@ -3715,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" s="12">
         <v>0.01</v>
@@ -3744,7 +3745,7 @@
         <v>32</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K49" s="7">
         <v>0.25</v>
@@ -3753,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49" s="12">
         <v>0.01</v>
@@ -3782,7 +3783,7 @@
         <v>19000</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K50" s="7">
         <v>0</v>
@@ -3791,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" s="12">
         <v>0.05</v>
@@ -3820,7 +3821,7 @@
         <v>28500</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K51" s="7">
         <v>0.02</v>
@@ -3829,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" s="12">
         <v>0.05</v>
@@ -3858,7 +3859,7 @@
         <v>38000</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K52" s="7">
         <v>0.04</v>
@@ -3867,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N52" s="12">
         <v>0.04</v>
@@ -3896,7 +3897,7 @@
         <v>47500</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K53" s="7">
         <v>0.06</v>
@@ -3905,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" s="12">
         <v>0.04</v>
@@ -3934,7 +3935,7 @@
         <v>57000</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K54" s="7">
         <v>0.08</v>
@@ -3943,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" s="12">
         <v>0.03</v>
@@ -3972,7 +3973,7 @@
         <v>76000</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K55" s="7">
         <v>0.1</v>
@@ -3981,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" s="12">
         <v>0.03</v>
@@ -4010,7 +4011,7 @@
         <v>95000</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K56" s="7">
         <v>0.125</v>
@@ -4019,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" s="12">
         <v>0.02</v>
@@ -4048,7 +4049,7 @@
         <v>114000</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57" s="7">
         <v>0.15</v>
@@ -4057,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" s="12">
         <v>0.02</v>
@@ -4086,7 +4087,7 @@
         <v>152000</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K58" s="7">
         <v>0.17499999999999999</v>
@@ -4095,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" s="12">
         <v>0.01</v>
@@ -4124,7 +4125,7 @@
         <v>190000</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59" s="7">
         <v>0.2</v>
@@ -4133,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" s="12">
         <v>0.01</v>
@@ -4162,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60" s="7">
         <v>0.25</v>
@@ -4171,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" s="12">
         <v>0.01</v>
@@ -4200,7 +4201,7 @@
         <v>19000</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -4238,7 +4239,7 @@
         <v>28500</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K62" s="7">
         <v>0.02</v>
@@ -4276,7 +4277,7 @@
         <v>38000</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63" s="7">
         <v>0.04</v>
@@ -4314,7 +4315,7 @@
         <v>47500</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K64" s="7">
         <v>0.06</v>
@@ -4352,7 +4353,7 @@
         <v>57000</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K65" s="7">
         <v>0.08</v>
@@ -4390,7 +4391,7 @@
         <v>76000</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K66" s="7">
         <v>0.1</v>
@@ -4428,7 +4429,7 @@
         <v>95000</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K67" s="7">
         <v>0.125</v>
@@ -4466,7 +4467,7 @@
         <v>114000</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68" s="7">
         <v>0.15</v>
@@ -4504,7 +4505,7 @@
         <v>152000</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K69" s="7">
         <v>0.17499999999999999</v>
@@ -4542,7 +4543,7 @@
         <v>190000</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K70" s="7">
         <v>0.2</v>
@@ -4580,7 +4581,7 @@
         <v>33</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K71" s="7">
         <v>0.25</v>
@@ -4618,7 +4619,7 @@
         <v>19000</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K72" s="7">
         <v>0</v>
@@ -4627,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N72" s="12">
         <v>0.05</v>
@@ -4656,7 +4657,7 @@
         <v>28500</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K73" s="7">
         <v>0.02</v>
@@ -4665,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N73" s="12">
         <v>0.05</v>
@@ -4694,7 +4695,7 @@
         <v>38000</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K74" s="7">
         <v>0.04</v>
@@ -4703,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N74" s="12">
         <v>0.04</v>
@@ -4732,7 +4733,7 @@
         <v>47500</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K75" s="7">
         <v>0.06</v>
@@ -4741,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N75" s="12">
         <v>0.04</v>
@@ -4770,7 +4771,7 @@
         <v>57000</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K76" s="7">
         <v>0.08</v>
@@ -4779,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N76" s="12">
         <v>0.03</v>
@@ -4808,7 +4809,7 @@
         <v>76000</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K77" s="7">
         <v>0.1</v>
@@ -4817,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N77" s="12">
         <v>0.03</v>
@@ -4846,7 +4847,7 @@
         <v>95000</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K78" s="7">
         <v>0.125</v>
@@ -4855,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N78" s="12">
         <v>0.02</v>
@@ -4884,7 +4885,7 @@
         <v>114000</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79" s="7">
         <v>0.15</v>
@@ -4893,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N79" s="12">
         <v>0.02</v>
@@ -4922,7 +4923,7 @@
         <v>152000</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K80" s="7">
         <v>0.17499999999999999</v>
@@ -4931,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N80" s="12">
         <v>0.01</v>
@@ -4960,7 +4961,7 @@
         <v>190000</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K81" s="7">
         <v>0.2</v>
@@ -4969,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N81" s="12">
         <v>0.01</v>
@@ -4998,7 +4999,7 @@
         <v>33</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K82" s="7">
         <v>0.25</v>
@@ -5007,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N82" s="12">
         <v>0.01</v>
@@ -5036,7 +5037,7 @@
         <v>4000</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K83" s="7">
         <v>0</v>
@@ -5045,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N83" s="12">
         <v>0.05</v>
@@ -5074,7 +5075,7 @@
         <v>6000</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K84" s="7">
         <v>0.02</v>
@@ -5083,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N84" s="12">
         <v>0.05</v>
@@ -5112,7 +5113,7 @@
         <v>8000</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K85" s="7">
         <v>0.04</v>
@@ -5121,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N85" s="12">
         <v>0.04</v>
@@ -5150,7 +5151,7 @@
         <v>10000</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K86" s="7">
         <v>0.06</v>
@@ -5159,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86" s="12">
         <v>0.04</v>
@@ -5188,7 +5189,7 @@
         <v>12000</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87" s="7">
         <v>0.08</v>
@@ -5197,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N87" s="12">
         <v>0.03</v>
@@ -5226,7 +5227,7 @@
         <v>16000</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K88" s="7">
         <v>0.1</v>
@@ -5235,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N88" s="12">
         <v>0.03</v>
@@ -5264,7 +5265,7 @@
         <v>20000</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K89" s="7">
         <v>0.125</v>
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N89" s="12">
         <v>0.02</v>
@@ -5302,7 +5303,7 @@
         <v>24000</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90" s="7">
         <v>0.15</v>
@@ -5311,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N90" s="12">
         <v>0.02</v>
@@ -5340,7 +5341,7 @@
         <v>32000</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K91" s="7">
         <v>0.17499999999999999</v>
@@ -5349,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N91" s="12">
         <v>0.01</v>
@@ -5378,7 +5379,7 @@
         <v>40000</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K92" s="7">
         <v>0.2</v>
@@ -5387,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N92" s="12">
         <v>0.01</v>
@@ -5416,7 +5417,7 @@
         <v>35</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K93" s="7">
         <v>0.25</v>
@@ -5425,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N93" s="12">
         <v>0.01</v>
@@ -5454,7 +5455,7 @@
         <v>6000</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K94" s="7">
         <v>0</v>
@@ -5463,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N94" s="12">
         <v>0.05</v>
@@ -5492,7 +5493,7 @@
         <v>9000</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K95" s="7">
         <v>0.02</v>
@@ -5501,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N95" s="12">
         <v>0.05</v>
@@ -5530,7 +5531,7 @@
         <v>12000</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K96" s="7">
         <v>0.04</v>
@@ -5539,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N96" s="12">
         <v>0.04</v>
@@ -5568,7 +5569,7 @@
         <v>15000</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K97" s="7">
         <v>0.06</v>
@@ -5577,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N97" s="12">
         <v>0.04</v>
@@ -5606,7 +5607,7 @@
         <v>18000</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98" s="7">
         <v>0.08</v>
@@ -5615,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N98" s="12">
         <v>0.03</v>
@@ -5644,7 +5645,7 @@
         <v>24000</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K99" s="7">
         <v>0.1</v>
@@ -5653,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N99" s="12">
         <v>0.03</v>
@@ -5682,7 +5683,7 @@
         <v>30000</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K100" s="7">
         <v>0.125</v>
@@ -5691,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N100" s="12">
         <v>0.02</v>
@@ -5720,7 +5721,7 @@
         <v>36000</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K101" s="7">
         <v>0.15</v>
@@ -5729,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N101" s="12">
         <v>0.02</v>
@@ -5758,7 +5759,7 @@
         <v>48000</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K102" s="7">
         <v>0.17499999999999999</v>
@@ -5767,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N102" s="12">
         <v>0.01</v>
@@ -5796,7 +5797,7 @@
         <v>60000</v>
       </c>
       <c r="J103" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K103" s="7">
         <v>0.2</v>
@@ -5805,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N103" s="12">
         <v>0.01</v>
@@ -5834,7 +5835,7 @@
         <v>38</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K104" s="7">
         <v>0.25</v>
@@ -5843,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N104" s="12">
         <v>0.01</v>
@@ -5872,7 +5873,7 @@
         <v>4000</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K105" s="7">
         <v>0</v>
@@ -5881,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N105" s="12">
         <v>0.05</v>
@@ -5910,7 +5911,7 @@
         <v>6000</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K106" s="7">
         <v>0.02</v>
@@ -5919,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N106" s="12">
         <v>0.05</v>
@@ -5948,7 +5949,7 @@
         <v>8000</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K107" s="7">
         <v>0.04</v>
@@ -5957,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N107" s="12">
         <v>0.04</v>
@@ -5986,7 +5987,7 @@
         <v>10000</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K108" s="7">
         <v>0.06</v>
@@ -5995,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N108" s="12">
         <v>0.04</v>
@@ -6024,7 +6025,7 @@
         <v>12000</v>
       </c>
       <c r="J109" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K109" s="7">
         <v>0.08</v>
@@ -6033,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N109" s="12">
         <v>0.03</v>
@@ -6062,7 +6063,7 @@
         <v>16000</v>
       </c>
       <c r="J110" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K110" s="7">
         <v>0.1</v>
@@ -6071,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N110" s="12">
         <v>0.03</v>
@@ -6100,7 +6101,7 @@
         <v>20000</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K111" s="7">
         <v>0.125</v>
@@ -6109,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N111" s="12">
         <v>0.02</v>
@@ -6138,7 +6139,7 @@
         <v>24000</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112" s="7">
         <v>0.15</v>
@@ -6147,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N112" s="12">
         <v>0.02</v>
@@ -6176,7 +6177,7 @@
         <v>32000</v>
       </c>
       <c r="J113" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K113" s="7">
         <v>0.17499999999999999</v>
@@ -6185,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N113" s="12">
         <v>0.01</v>
@@ -6214,7 +6215,7 @@
         <v>40000</v>
       </c>
       <c r="J114" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K114" s="7">
         <v>0.2</v>
@@ -6223,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N114" s="12">
         <v>0.01</v>
@@ -6252,7 +6253,7 @@
         <v>35</v>
       </c>
       <c r="J115" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K115" s="7">
         <v>0.25</v>
@@ -6261,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N115" s="12">
         <v>0.01</v>
@@ -6290,7 +6291,7 @@
         <v>5000</v>
       </c>
       <c r="J116" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K116" s="7">
         <v>0</v>
@@ -6299,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N116" s="12">
         <v>0.05</v>
@@ -6328,7 +6329,7 @@
         <v>7500</v>
       </c>
       <c r="J117" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K117" s="7">
         <v>0.02</v>
@@ -6337,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N117" s="12">
         <v>0.05</v>
@@ -6366,7 +6367,7 @@
         <v>10000</v>
       </c>
       <c r="J118" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K118" s="7">
         <v>0.04</v>
@@ -6375,7 +6376,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N118" s="12">
         <v>0.04</v>
@@ -6404,7 +6405,7 @@
         <v>12500</v>
       </c>
       <c r="J119" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K119" s="7">
         <v>0.06</v>
@@ -6413,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N119" s="12">
         <v>0.04</v>
@@ -6442,7 +6443,7 @@
         <v>15000</v>
       </c>
       <c r="J120" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120" s="7">
         <v>0.08</v>
@@ -6451,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N120" s="12">
         <v>0.03</v>
@@ -6480,7 +6481,7 @@
         <v>20000</v>
       </c>
       <c r="J121" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K121" s="7">
         <v>0.1</v>
@@ -6489,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N121" s="12">
         <v>0.03</v>
@@ -6518,7 +6519,7 @@
         <v>25000</v>
       </c>
       <c r="J122" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K122" s="7">
         <v>0.125</v>
@@ -6527,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N122" s="12">
         <v>0.02</v>
@@ -6556,7 +6557,7 @@
         <v>30000</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123" s="7">
         <v>0.15</v>
@@ -6565,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N123" s="12">
         <v>0.02</v>
@@ -6594,7 +6595,7 @@
         <v>40000</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K124" s="7">
         <v>0.17499999999999999</v>
@@ -6603,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N124" s="12">
         <v>0.01</v>
@@ -6632,7 +6633,7 @@
         <v>50000</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K125" s="7">
         <v>0.2</v>
@@ -6641,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N125" s="12">
         <v>0.01</v>
@@ -6670,7 +6671,7 @@
         <v>36</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K126" s="7">
         <v>0.25</v>
@@ -6679,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N126" s="12">
         <v>0.01</v>
@@ -6708,7 +6709,7 @@
         <v>5500</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K127" s="7">
         <v>0</v>
@@ -6717,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N127" s="12">
         <v>0.05</v>
@@ -6746,7 +6747,7 @@
         <v>8250</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K128" s="7">
         <v>0.02</v>
@@ -6755,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N128" s="12">
         <v>0.05</v>
@@ -6784,7 +6785,7 @@
         <v>11000</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K129" s="7">
         <v>0.04</v>
@@ -6793,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N129" s="12">
         <v>0.04</v>
@@ -6822,7 +6823,7 @@
         <v>13750</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K130" s="7">
         <v>0.06</v>
@@ -6831,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N130" s="12">
         <v>0.04</v>
@@ -6860,7 +6861,7 @@
         <v>16500</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K131" s="7">
         <v>0.08</v>
@@ -6869,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N131" s="12">
         <v>0.03</v>
@@ -6898,7 +6899,7 @@
         <v>22000</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K132" s="7">
         <v>0.1</v>
@@ -6907,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N132" s="12">
         <v>0.03</v>
@@ -6936,7 +6937,7 @@
         <v>27500</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K133" s="7">
         <v>0.125</v>
@@ -6945,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N133" s="12">
         <v>0.02</v>
@@ -6974,7 +6975,7 @@
         <v>33000</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K134" s="7">
         <v>0.15</v>
@@ -6983,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N134" s="12">
         <v>0.02</v>
@@ -7012,7 +7013,7 @@
         <v>44000</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K135" s="7">
         <v>0.17499999999999999</v>
@@ -7021,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N135" s="12">
         <v>0.01</v>
@@ -7050,7 +7051,7 @@
         <v>55000</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K136" s="7">
         <v>0.2</v>
@@ -7059,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="M136" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N136" s="12">
         <v>0.01</v>
@@ -7088,7 +7089,7 @@
         <v>38</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K137" s="7">
         <v>0.25</v>
@@ -7097,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="M137" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N137" s="12">
         <v>0.01</v>
@@ -7126,7 +7127,7 @@
         <v>6500</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K138" s="7">
         <v>0</v>
@@ -7135,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N138" s="12">
         <v>0.05</v>
@@ -7164,7 +7165,7 @@
         <v>9750</v>
       </c>
       <c r="J139" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K139" s="7">
         <v>0.02</v>
@@ -7173,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N139" s="12">
         <v>0.05</v>
@@ -7202,7 +7203,7 @@
         <v>13000</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K140" s="7">
         <v>0.04</v>
@@ -7211,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N140" s="12">
         <v>0.04</v>
@@ -7240,7 +7241,7 @@
         <v>16250</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K141" s="7">
         <v>0.06</v>
@@ -7249,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="M141" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N141" s="12">
         <v>0.04</v>
@@ -7278,7 +7279,7 @@
         <v>19500</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K142" s="7">
         <v>0.08</v>
@@ -7287,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="M142" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N142" s="12">
         <v>0.03</v>
@@ -7316,7 +7317,7 @@
         <v>26000</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K143" s="7">
         <v>0.1</v>
@@ -7325,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N143" s="12">
         <v>0.03</v>
@@ -7354,7 +7355,7 @@
         <v>32500</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K144" s="7">
         <v>0.125</v>
@@ -7363,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N144" s="12">
         <v>0.02</v>
@@ -7392,7 +7393,7 @@
         <v>39000</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K145" s="7">
         <v>0.15</v>
@@ -7401,7 +7402,7 @@
         <v>0</v>
       </c>
       <c r="M145" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N145" s="12">
         <v>0.02</v>
@@ -7430,7 +7431,7 @@
         <v>52000</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K146" s="7">
         <v>0.17499999999999999</v>
@@ -7439,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="M146" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N146" s="12">
         <v>0.01</v>
@@ -7468,7 +7469,7 @@
         <v>65000</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K147" s="7">
         <v>0.2</v>
@@ -7477,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N147" s="12">
         <v>0.01</v>
@@ -7506,7 +7507,7 @@
         <v>38</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K148" s="7">
         <v>0.25</v>
@@ -7515,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="M148" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N148" s="12">
         <v>0.01</v>

--- a/Excel/EquipQiangHuaConfig.xlsx
+++ b/Excel/EquipQiangHuaConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0862DB8-18BC-46AD-AB34-167E95827C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A79B9-5653-4967-9BC1-3562EB67B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2020,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IF174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="IF16"/>
     </row>
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="N17" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="IF17"/>
     </row>
@@ -3067,7 +3067,7 @@
         <v>53</v>
       </c>
       <c r="K29" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L29" s="7">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -3105,7 +3105,7 @@
         <v>86</v>
       </c>
       <c r="K30" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L30" s="15">
         <v>0</v>
@@ -3113,8 +3113,8 @@
       <c r="M30" s="17">
         <v>2</v>
       </c>
-      <c r="N30" s="17">
-        <v>0.01</v>
+      <c r="N30" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
@@ -3369,7 +3369,7 @@
         <v>87</v>
       </c>
       <c r="K31" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L31" s="15">
         <v>0</v>
@@ -3377,8 +3377,8 @@
       <c r="M31" s="17">
         <v>2</v>
       </c>
-      <c r="N31" s="17">
-        <v>0.01</v>
+      <c r="N31" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
@@ -4013,7 +4013,7 @@
         <v>52</v>
       </c>
       <c r="K42" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L42" s="7">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="43" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -4051,7 +4051,7 @@
         <v>88</v>
       </c>
       <c r="K43" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L43" s="15">
         <v>0</v>
@@ -4059,8 +4059,8 @@
       <c r="M43" s="17">
         <v>3</v>
       </c>
-      <c r="N43" s="17">
-        <v>0.01</v>
+      <c r="N43" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O43" s="18"/>
       <c r="P43" s="18"/>
@@ -4315,7 +4315,7 @@
         <v>89</v>
       </c>
       <c r="K44" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L44" s="15">
         <v>0</v>
@@ -4323,8 +4323,8 @@
       <c r="M44" s="17">
         <v>3</v>
       </c>
-      <c r="N44" s="17">
-        <v>0.01</v>
+      <c r="N44" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
@@ -4959,7 +4959,7 @@
         <v>52</v>
       </c>
       <c r="K55" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L55" s="7">
         <v>0</v>
@@ -4968,7 +4968,7 @@
         <v>4</v>
       </c>
       <c r="N55" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -4997,7 +4997,7 @@
         <v>88</v>
       </c>
       <c r="K56" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L56" s="15">
         <v>0</v>
@@ -5005,8 +5005,8 @@
       <c r="M56" s="17">
         <v>4</v>
       </c>
-      <c r="N56" s="17">
-        <v>0.01</v>
+      <c r="N56" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O56" s="18"/>
       <c r="P56" s="18"/>
@@ -5261,7 +5261,7 @@
         <v>89</v>
       </c>
       <c r="K57" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L57" s="15">
         <v>0</v>
@@ -5269,8 +5269,8 @@
       <c r="M57" s="17">
         <v>4</v>
       </c>
-      <c r="N57" s="17">
-        <v>0.01</v>
+      <c r="N57" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
@@ -5905,7 +5905,7 @@
         <v>75</v>
       </c>
       <c r="K68" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L68" s="7">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="N68" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -5943,7 +5943,7 @@
         <v>90</v>
       </c>
       <c r="K69" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L69" s="15">
         <v>0</v>
@@ -5951,8 +5951,8 @@
       <c r="M69" s="17">
         <v>5</v>
       </c>
-      <c r="N69" s="17">
-        <v>0.01</v>
+      <c r="N69" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
@@ -6207,7 +6207,7 @@
         <v>91</v>
       </c>
       <c r="K70" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L70" s="15">
         <v>0</v>
@@ -6215,8 +6215,8 @@
       <c r="M70" s="17">
         <v>5</v>
       </c>
-      <c r="N70" s="17">
-        <v>0.01</v>
+      <c r="N70" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
@@ -6851,7 +6851,7 @@
         <v>75</v>
       </c>
       <c r="K81" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L81" s="7">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>5</v>
       </c>
       <c r="N81" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6889,7 +6889,7 @@
         <v>90</v>
       </c>
       <c r="K82" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L82" s="15">
         <v>0</v>
@@ -6897,8 +6897,8 @@
       <c r="M82" s="17">
         <v>5</v>
       </c>
-      <c r="N82" s="17">
-        <v>0.01</v>
+      <c r="N82" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
@@ -7153,7 +7153,7 @@
         <v>91</v>
       </c>
       <c r="K83" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L83" s="15">
         <v>0</v>
@@ -7161,8 +7161,8 @@
       <c r="M83" s="17">
         <v>5</v>
       </c>
-      <c r="N83" s="17">
-        <v>0.01</v>
+      <c r="N83" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O83" s="18"/>
       <c r="P83" s="18"/>
@@ -7797,7 +7797,7 @@
         <v>75</v>
       </c>
       <c r="K94" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L94" s="7">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="N94" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="95" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7835,7 +7835,7 @@
         <v>90</v>
       </c>
       <c r="K95" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L95" s="15">
         <v>0</v>
@@ -7843,8 +7843,8 @@
       <c r="M95" s="17">
         <v>5</v>
       </c>
-      <c r="N95" s="17">
-        <v>0.01</v>
+      <c r="N95" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
@@ -8099,7 +8099,7 @@
         <v>91</v>
       </c>
       <c r="K96" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L96" s="15">
         <v>0</v>
@@ -8107,8 +8107,8 @@
       <c r="M96" s="17">
         <v>5</v>
       </c>
-      <c r="N96" s="17">
-        <v>0.01</v>
+      <c r="N96" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
@@ -8743,7 +8743,7 @@
         <v>76</v>
       </c>
       <c r="K107" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L107" s="7">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>6</v>
       </c>
       <c r="N107" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="108" spans="3:240" s="19" customFormat="1" ht="19.5" customHeight="1">
@@ -8781,7 +8781,7 @@
         <v>92</v>
       </c>
       <c r="K108" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L108" s="15">
         <v>0</v>
@@ -8789,8 +8789,8 @@
       <c r="M108" s="17">
         <v>6</v>
       </c>
-      <c r="N108" s="17">
-        <v>0.01</v>
+      <c r="N108" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
@@ -9045,7 +9045,7 @@
         <v>86</v>
       </c>
       <c r="K109" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L109" s="15">
         <v>0</v>
@@ -9053,8 +9053,8 @@
       <c r="M109" s="17">
         <v>6</v>
       </c>
-      <c r="N109" s="17">
-        <v>0.01</v>
+      <c r="N109" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
@@ -9689,7 +9689,7 @@
         <v>76</v>
       </c>
       <c r="K120" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L120" s="7">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>7</v>
       </c>
       <c r="N120" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="121" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -9727,7 +9727,7 @@
         <v>92</v>
       </c>
       <c r="K121" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L121" s="15">
         <v>0</v>
@@ -9735,8 +9735,8 @@
       <c r="M121" s="17">
         <v>7</v>
       </c>
-      <c r="N121" s="17">
-        <v>0.01</v>
+      <c r="N121" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
@@ -9991,7 +9991,7 @@
         <v>86</v>
       </c>
       <c r="K122" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L122" s="15">
         <v>0</v>
@@ -9999,8 +9999,8 @@
       <c r="M122" s="17">
         <v>7</v>
       </c>
-      <c r="N122" s="17">
-        <v>0.01</v>
+      <c r="N122" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
@@ -10635,7 +10635,7 @@
         <v>76</v>
       </c>
       <c r="K133" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L133" s="7">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>8</v>
       </c>
       <c r="N133" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -10673,7 +10673,7 @@
         <v>92</v>
       </c>
       <c r="K134" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L134" s="15">
         <v>0</v>
@@ -10681,8 +10681,8 @@
       <c r="M134" s="17">
         <v>8</v>
       </c>
-      <c r="N134" s="17">
-        <v>0.01</v>
+      <c r="N134" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
@@ -10937,7 +10937,7 @@
         <v>86</v>
       </c>
       <c r="K135" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L135" s="15">
         <v>0</v>
@@ -10945,8 +10945,8 @@
       <c r="M135" s="17">
         <v>8</v>
       </c>
-      <c r="N135" s="17">
-        <v>0.01</v>
+      <c r="N135" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
@@ -11581,7 +11581,7 @@
         <v>76</v>
       </c>
       <c r="K146" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L146" s="7">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>9</v>
       </c>
       <c r="N146" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -11619,7 +11619,7 @@
         <v>92</v>
       </c>
       <c r="K147" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L147" s="15">
         <v>0</v>
@@ -11627,8 +11627,8 @@
       <c r="M147" s="17">
         <v>9</v>
       </c>
-      <c r="N147" s="17">
-        <v>0.01</v>
+      <c r="N147" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
@@ -11883,7 +11883,7 @@
         <v>86</v>
       </c>
       <c r="K148" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L148" s="15">
         <v>0</v>
@@ -11891,8 +11891,8 @@
       <c r="M148" s="17">
         <v>9</v>
       </c>
-      <c r="N148" s="17">
-        <v>0.01</v>
+      <c r="N148" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
@@ -12527,7 +12527,7 @@
         <v>76</v>
       </c>
       <c r="K159" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L159" s="7">
         <v>0</v>
@@ -12536,7 +12536,7 @@
         <v>10</v>
       </c>
       <c r="N159" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="160" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -12565,7 +12565,7 @@
         <v>92</v>
       </c>
       <c r="K160" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L160" s="15">
         <v>0</v>
@@ -12573,8 +12573,8 @@
       <c r="M160" s="17">
         <v>10</v>
       </c>
-      <c r="N160" s="17">
-        <v>0.01</v>
+      <c r="N160" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
@@ -12829,7 +12829,7 @@
         <v>86</v>
       </c>
       <c r="K161" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L161" s="15">
         <v>0</v>
@@ -12837,8 +12837,8 @@
       <c r="M161" s="17">
         <v>10</v>
       </c>
-      <c r="N161" s="17">
-        <v>0.01</v>
+      <c r="N161" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
@@ -13473,7 +13473,7 @@
         <v>52</v>
       </c>
       <c r="K172" s="7">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L172" s="7">
         <v>0</v>
@@ -13482,7 +13482,7 @@
         <v>11</v>
       </c>
       <c r="N172" s="12">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="173" spans="3:240" s="19" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -13511,7 +13511,7 @@
         <v>93</v>
       </c>
       <c r="K173" s="7">
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L173" s="15">
         <v>0</v>
@@ -13519,8 +13519,8 @@
       <c r="M173" s="17">
         <v>11</v>
       </c>
-      <c r="N173" s="17">
-        <v>0.01</v>
+      <c r="N173" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
@@ -13775,7 +13775,7 @@
         <v>89</v>
       </c>
       <c r="K174" s="7">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="L174" s="15">
         <v>0</v>
@@ -13783,8 +13783,8 @@
       <c r="M174" s="17">
         <v>11</v>
       </c>
-      <c r="N174" s="17">
-        <v>0.01</v>
+      <c r="N174" s="12">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>

--- a/Excel/EquipQiangHuaConfig.xlsx
+++ b/Excel/EquipQiangHuaConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0995538B-4562-4CA8-BCAB-E4DB77360152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D54FDBC-D01A-4929-AA5E-75758C3C8205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3110,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IF187"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3659,7 +3659,7 @@
         <v>35</v>
       </c>
       <c r="K16" s="11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="L16" s="11">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="11">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L17" s="11">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>39</v>
       </c>
       <c r="K18" s="11">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="L18" s="11">
         <v>0</v>

--- a/Excel/EquipQiangHuaConfig.xlsx
+++ b/Excel/EquipQiangHuaConfig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808CA92-B2E9-4EF1-82F7-8BA37DFEDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D742D4-BE4D-4162-9877-B8B55FCB3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipQiangHuaProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1473,9 +1473,6 @@
     <t>UpLvLimit</t>
   </si>
   <si>
-    <t>SuccessPro</t>
-  </si>
-  <si>
     <t>CostGold</t>
   </si>
   <si>
@@ -1489,9 +1486,6 @@
   </si>
   <si>
     <t>ItemSubType</t>
-  </si>
-  <si>
-    <t>AdditionPro</t>
   </si>
   <si>
     <t>int</t>
@@ -1738,6 +1732,14 @@
   </si>
   <si>
     <t>10010085;1000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionPro</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuccessPro</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3157,8 +3159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:IF213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="N212" sqref="N212"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
@@ -3233,63 +3235,63 @@
         <v>15</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="3:240" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="3:240" ht="20.100000000000001" customHeight="1">
@@ -3315,7 +3317,7 @@
         <v>30000</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K6" s="11">
         <v>0</v>
@@ -3353,7 +3355,7 @@
         <v>45000</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11">
         <v>0.02</v>
@@ -3391,7 +3393,7 @@
         <v>60000</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="11">
         <v>0.04</v>
@@ -3430,7 +3432,7 @@
         <v>75000</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9" s="11">
         <v>0.06</v>
@@ -3469,7 +3471,7 @@
         <v>90000</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K10" s="11">
         <v>0.08</v>
@@ -3508,7 +3510,7 @@
         <v>120000</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="11">
         <v>0.1</v>
@@ -3547,7 +3549,7 @@
         <v>150000</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="11">
         <v>0.125</v>
@@ -3586,7 +3588,7 @@
         <v>180000</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K13" s="11">
         <v>0.15</v>
@@ -3625,7 +3627,7 @@
         <v>240000</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K14" s="11">
         <v>0.17499999999999999</v>
@@ -3664,7 +3666,7 @@
         <v>300000</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="11">
         <v>0.2</v>
@@ -3700,10 +3702,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K16" s="11">
         <v>0.24</v>
@@ -3739,10 +3741,10 @@
         <v>0.05</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K17" s="11">
         <v>0.28000000000000003</v>
@@ -3778,10 +3780,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="K18" s="11">
         <v>0.32</v>
@@ -3817,10 +3819,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K19" s="11">
         <v>0.36</v>
@@ -3856,10 +3858,10 @@
         <v>0.01</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="K20" s="11">
         <v>0.4</v>
@@ -3895,10 +3897,10 @@
         <v>0.01</v>
       </c>
       <c r="I21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>90</v>
       </c>
       <c r="K21" s="11">
         <v>0.45</v>
@@ -3919,7 +3921,7 @@
         <v>10200</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="11">
         <v>10201</v>
@@ -3937,7 +3939,7 @@
         <v>15000</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22" s="11">
         <v>0</v>
@@ -3957,7 +3959,7 @@
         <v>10201</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="10">
         <v>10202</v>
@@ -3975,7 +3977,7 @@
         <v>22500</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" s="11">
         <v>0.02</v>
@@ -3995,7 +3997,7 @@
         <v>10202</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="10">
         <v>10203</v>
@@ -4013,7 +4015,7 @@
         <v>30000</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K24" s="11">
         <v>0.04</v>
@@ -4033,7 +4035,7 @@
         <v>10203</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="10">
         <v>10204</v>
@@ -4051,7 +4053,7 @@
         <v>37500</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25" s="11">
         <v>0.06</v>
@@ -4071,7 +4073,7 @@
         <v>10204</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" s="10">
         <v>10205</v>
@@ -4089,7 +4091,7 @@
         <v>45000</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K26" s="11">
         <v>0.08</v>
@@ -4109,7 +4111,7 @@
         <v>10205</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="10">
         <v>10206</v>
@@ -4127,7 +4129,7 @@
         <v>60000</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K27" s="11">
         <v>0.1</v>
@@ -4147,7 +4149,7 @@
         <v>10206</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="10">
         <v>10207</v>
@@ -4165,7 +4167,7 @@
         <v>75000</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K28" s="11">
         <v>0.125</v>
@@ -4185,7 +4187,7 @@
         <v>10207</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29" s="10">
         <v>10208</v>
@@ -4203,7 +4205,7 @@
         <v>90000</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K29" s="11">
         <v>0.15</v>
@@ -4223,7 +4225,7 @@
         <v>10208</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="10">
         <v>10209</v>
@@ -4241,7 +4243,7 @@
         <v>120000</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K30" s="11">
         <v>0.17499999999999999</v>
@@ -4261,7 +4263,7 @@
         <v>10209</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="10">
         <v>10210</v>
@@ -4279,7 +4281,7 @@
         <v>150000</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31" s="11">
         <v>0.2</v>
@@ -4299,7 +4301,7 @@
         <v>10210</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="9">
         <v>10211</v>
@@ -4314,10 +4316,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K32" s="11">
         <v>0.24</v>
@@ -4337,7 +4339,7 @@
         <v>10211</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="12">
         <v>10212</v>
@@ -4352,10 +4354,10 @@
         <v>0.05</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33" s="11">
         <v>0.28000000000000003</v>
@@ -4601,7 +4603,7 @@
         <v>10212</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="12">
         <v>10213</v>
@@ -4616,10 +4618,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K34" s="11">
         <v>0.32</v>
@@ -4865,7 +4867,7 @@
         <v>10213</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="12">
         <v>10214</v>
@@ -4880,10 +4882,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K35" s="11">
         <v>0.36</v>
@@ -5129,7 +5131,7 @@
         <v>10214</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="12">
         <v>10215</v>
@@ -5144,10 +5146,10 @@
         <v>0.01</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K36" s="11">
         <v>0.4</v>
@@ -5393,7 +5395,7 @@
         <v>10215</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="14">
         <v>0</v>
@@ -5408,10 +5410,10 @@
         <v>0.01</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K37" s="11">
         <v>0.45</v>
@@ -5657,7 +5659,7 @@
         <v>10300</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E38" s="11">
         <v>10301</v>
@@ -5675,7 +5677,7 @@
         <v>12000</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K38" s="11">
         <v>0</v>
@@ -5695,7 +5697,7 @@
         <v>10301</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" s="10">
         <v>10302</v>
@@ -5713,7 +5715,7 @@
         <v>18000</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K39" s="11">
         <v>0.02</v>
@@ -5733,7 +5735,7 @@
         <v>10302</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E40" s="10">
         <v>10303</v>
@@ -5751,7 +5753,7 @@
         <v>24000</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K40" s="11">
         <v>0.04</v>
@@ -5771,7 +5773,7 @@
         <v>10303</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41" s="10">
         <v>10304</v>
@@ -5789,7 +5791,7 @@
         <v>30000</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K41" s="11">
         <v>0.06</v>
@@ -5809,7 +5811,7 @@
         <v>10304</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E42" s="10">
         <v>10305</v>
@@ -5827,7 +5829,7 @@
         <v>36000</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42" s="11">
         <v>0.08</v>
@@ -5847,7 +5849,7 @@
         <v>10305</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" s="10">
         <v>10306</v>
@@ -5865,7 +5867,7 @@
         <v>48000</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K43" s="11">
         <v>0.1</v>
@@ -5885,7 +5887,7 @@
         <v>10306</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E44" s="10">
         <v>10307</v>
@@ -5903,7 +5905,7 @@
         <v>60000</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K44" s="11">
         <v>0.125</v>
@@ -5923,7 +5925,7 @@
         <v>10307</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E45" s="10">
         <v>10308</v>
@@ -5941,7 +5943,7 @@
         <v>72000</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K45" s="11">
         <v>0.15</v>
@@ -5961,7 +5963,7 @@
         <v>10308</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="10">
         <v>10309</v>
@@ -5979,7 +5981,7 @@
         <v>96000</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K46" s="11">
         <v>0.17499999999999999</v>
@@ -5999,7 +6001,7 @@
         <v>10309</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E47" s="9">
         <v>10310</v>
@@ -6017,7 +6019,7 @@
         <v>120000</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K47" s="11">
         <v>0.2</v>
@@ -6037,7 +6039,7 @@
         <v>10310</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E48" s="9">
         <v>10311</v>
@@ -6052,10 +6054,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K48" s="11">
         <v>0.24</v>
@@ -6075,7 +6077,7 @@
         <v>10311</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E49" s="12">
         <v>10312</v>
@@ -6090,10 +6092,10 @@
         <v>0.05</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K49" s="11">
         <v>0.28000000000000003</v>
@@ -6339,7 +6341,7 @@
         <v>10312</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E50" s="12">
         <v>10313</v>
@@ -6354,10 +6356,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I50" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K50" s="11">
         <v>0.32</v>
@@ -6603,7 +6605,7 @@
         <v>10313</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E51" s="12">
         <v>10314</v>
@@ -6618,10 +6620,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K51" s="11">
         <v>0.36</v>
@@ -6867,13 +6869,13 @@
         <v>10314</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E52" s="12">
         <v>10315</v>
       </c>
       <c r="F52" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G52" s="11">
         <v>55</v>
@@ -6882,10 +6884,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K52" s="11">
         <v>0.4</v>
@@ -7131,13 +7133,13 @@
         <v>10315</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E53" s="14">
         <v>0</v>
       </c>
       <c r="F53" s="14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G53" s="11">
         <v>55</v>
@@ -7146,10 +7148,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I53" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K53" s="11">
         <v>0.45</v>
@@ -7395,7 +7397,7 @@
         <v>10400</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" s="11">
         <v>10401</v>
@@ -7413,7 +7415,7 @@
         <v>8000</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K54" s="11">
         <v>0</v>
@@ -7433,7 +7435,7 @@
         <v>10401</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" s="10">
         <v>10402</v>
@@ -7451,7 +7453,7 @@
         <v>12000</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K55" s="11">
         <v>0.02</v>
@@ -7471,7 +7473,7 @@
         <v>10402</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E56" s="10">
         <v>10403</v>
@@ -7489,7 +7491,7 @@
         <v>16000</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K56" s="11">
         <v>0.04</v>
@@ -7509,7 +7511,7 @@
         <v>10403</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57" s="10">
         <v>10404</v>
@@ -7527,7 +7529,7 @@
         <v>20000</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K57" s="11">
         <v>0.06</v>
@@ -7547,7 +7549,7 @@
         <v>10404</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" s="10">
         <v>10405</v>
@@ -7565,7 +7567,7 @@
         <v>24000</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K58" s="11">
         <v>0.08</v>
@@ -7585,7 +7587,7 @@
         <v>10405</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" s="10">
         <v>10406</v>
@@ -7603,7 +7605,7 @@
         <v>32000</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K59" s="11">
         <v>0.1</v>
@@ -7623,7 +7625,7 @@
         <v>10406</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60" s="10">
         <v>10407</v>
@@ -7641,7 +7643,7 @@
         <v>40000</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K60" s="11">
         <v>0.125</v>
@@ -7661,7 +7663,7 @@
         <v>10407</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" s="10">
         <v>10408</v>
@@ -7679,7 +7681,7 @@
         <v>48000</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K61" s="11">
         <v>0.15</v>
@@ -7699,7 +7701,7 @@
         <v>10408</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E62" s="10">
         <v>10409</v>
@@ -7717,7 +7719,7 @@
         <v>64000</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K62" s="11">
         <v>0.17499999999999999</v>
@@ -7737,7 +7739,7 @@
         <v>10409</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63" s="10">
         <v>10410</v>
@@ -7755,7 +7757,7 @@
         <v>80000</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K63" s="11">
         <v>0.2</v>
@@ -7775,7 +7777,7 @@
         <v>10410</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E64" s="10">
         <v>10411</v>
@@ -7790,10 +7792,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I64" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K64" s="11">
         <v>0.24</v>
@@ -7813,7 +7815,7 @@
         <v>10411</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E65" s="10">
         <v>10412</v>
@@ -7828,10 +7830,10 @@
         <v>0.05</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K65" s="11">
         <v>0.28000000000000003</v>
@@ -8077,7 +8079,7 @@
         <v>10412</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" s="12">
         <v>10413</v>
@@ -8092,10 +8094,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I66" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K66" s="11">
         <v>0.32</v>
@@ -8341,7 +8343,7 @@
         <v>10413</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E67" s="12">
         <v>10414</v>
@@ -8356,10 +8358,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I67" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K67" s="11">
         <v>0.36</v>
@@ -8605,7 +8607,7 @@
         <v>10414</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E68" s="12">
         <v>10415</v>
@@ -8620,10 +8622,10 @@
         <v>0.01</v>
       </c>
       <c r="I68" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K68" s="11">
         <v>0.4</v>
@@ -8869,7 +8871,7 @@
         <v>10415</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E69" s="14">
         <v>0</v>
@@ -8884,10 +8886,10 @@
         <v>0.01</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K69" s="11">
         <v>0.45</v>
@@ -9133,7 +9135,7 @@
         <v>10500</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E70" s="11">
         <v>10501</v>
@@ -9151,7 +9153,7 @@
         <v>19000</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K70" s="11">
         <v>0</v>
@@ -9171,7 +9173,7 @@
         <v>10501</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71" s="10">
         <v>10502</v>
@@ -9189,7 +9191,7 @@
         <v>28500</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K71" s="11">
         <v>0.02</v>
@@ -9209,7 +9211,7 @@
         <v>10502</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E72" s="10">
         <v>10503</v>
@@ -9227,7 +9229,7 @@
         <v>38000</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K72" s="11">
         <v>0.04</v>
@@ -9247,7 +9249,7 @@
         <v>10503</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E73" s="10">
         <v>10504</v>
@@ -9265,7 +9267,7 @@
         <v>47500</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K73" s="11">
         <v>0.06</v>
@@ -9285,7 +9287,7 @@
         <v>10504</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E74" s="10">
         <v>10505</v>
@@ -9303,7 +9305,7 @@
         <v>57000</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K74" s="11">
         <v>0.08</v>
@@ -9323,7 +9325,7 @@
         <v>10505</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E75" s="10">
         <v>10506</v>
@@ -9341,7 +9343,7 @@
         <v>76000</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K75" s="11">
         <v>0.1</v>
@@ -9361,7 +9363,7 @@
         <v>10506</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E76" s="10">
         <v>10507</v>
@@ -9379,7 +9381,7 @@
         <v>95000</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K76" s="11">
         <v>0.125</v>
@@ -9399,7 +9401,7 @@
         <v>10507</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E77" s="10">
         <v>10508</v>
@@ -9417,7 +9419,7 @@
         <v>114000</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K77" s="11">
         <v>0.15</v>
@@ -9437,7 +9439,7 @@
         <v>10508</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E78" s="10">
         <v>10509</v>
@@ -9455,7 +9457,7 @@
         <v>152000</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K78" s="11">
         <v>0.17499999999999999</v>
@@ -9475,7 +9477,7 @@
         <v>10509</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E79" s="10">
         <v>10510</v>
@@ -9493,7 +9495,7 @@
         <v>190000</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K79" s="11">
         <v>0.2</v>
@@ -9513,7 +9515,7 @@
         <v>10510</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E80" s="10">
         <v>10511</v>
@@ -9528,10 +9530,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K80" s="11">
         <v>0.24</v>
@@ -9551,7 +9553,7 @@
         <v>10511</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E81" s="10">
         <v>10512</v>
@@ -9566,10 +9568,10 @@
         <v>0.05</v>
       </c>
       <c r="I81" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K81" s="11">
         <v>0.28000000000000003</v>
@@ -9815,7 +9817,7 @@
         <v>10512</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E82" s="12">
         <v>10513</v>
@@ -9830,10 +9832,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J82" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K82" s="11">
         <v>0.32</v>
@@ -10079,7 +10081,7 @@
         <v>10513</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E83" s="12">
         <v>10514</v>
@@ -10094,10 +10096,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I83" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K83" s="11">
         <v>0.36</v>
@@ -10343,7 +10345,7 @@
         <v>10514</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E84" s="12">
         <v>10515</v>
@@ -10358,10 +10360,10 @@
         <v>0.01</v>
       </c>
       <c r="I84" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J84" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="K84" s="11">
         <v>0.4</v>
@@ -10607,7 +10609,7 @@
         <v>10515</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E85" s="14">
         <v>0</v>
@@ -10622,10 +10624,10 @@
         <v>0.01</v>
       </c>
       <c r="I85" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J85" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="K85" s="11">
         <v>0.45</v>
@@ -10871,7 +10873,7 @@
         <v>10600</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E86" s="11">
         <v>10601</v>
@@ -10889,7 +10891,7 @@
         <v>19000</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K86" s="11">
         <v>0</v>
@@ -10909,7 +10911,7 @@
         <v>10601</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E87" s="10">
         <v>10602</v>
@@ -10927,7 +10929,7 @@
         <v>28500</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K87" s="11">
         <v>0.02</v>
@@ -10947,7 +10949,7 @@
         <v>10602</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E88" s="10">
         <v>10603</v>
@@ -10965,7 +10967,7 @@
         <v>38000</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K88" s="11">
         <v>0.04</v>
@@ -10985,7 +10987,7 @@
         <v>10603</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E89" s="10">
         <v>10604</v>
@@ -11003,7 +11005,7 @@
         <v>47500</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K89" s="11">
         <v>0.06</v>
@@ -11023,7 +11025,7 @@
         <v>10604</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E90" s="10">
         <v>10605</v>
@@ -11041,7 +11043,7 @@
         <v>57000</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K90" s="11">
         <v>0.08</v>
@@ -11061,7 +11063,7 @@
         <v>10605</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E91" s="10">
         <v>10606</v>
@@ -11079,7 +11081,7 @@
         <v>76000</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K91" s="11">
         <v>0.1</v>
@@ -11099,7 +11101,7 @@
         <v>10606</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E92" s="10">
         <v>10607</v>
@@ -11117,7 +11119,7 @@
         <v>95000</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K92" s="11">
         <v>0.125</v>
@@ -11137,7 +11139,7 @@
         <v>10607</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E93" s="10">
         <v>10608</v>
@@ -11155,7 +11157,7 @@
         <v>114000</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K93" s="11">
         <v>0.15</v>
@@ -11175,7 +11177,7 @@
         <v>10608</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E94" s="10">
         <v>10609</v>
@@ -11193,7 +11195,7 @@
         <v>152000</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K94" s="11">
         <v>0.17499999999999999</v>
@@ -11213,7 +11215,7 @@
         <v>10609</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E95" s="10">
         <v>10610</v>
@@ -11231,7 +11233,7 @@
         <v>190000</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K95" s="11">
         <v>0.2</v>
@@ -11251,7 +11253,7 @@
         <v>10610</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E96" s="10">
         <v>10611</v>
@@ -11266,10 +11268,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K96" s="11">
         <v>0.24</v>
@@ -11289,7 +11291,7 @@
         <v>10611</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E97" s="10">
         <v>10612</v>
@@ -11304,10 +11306,10 @@
         <v>0.05</v>
       </c>
       <c r="I97" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J97" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K97" s="11">
         <v>0.28000000000000003</v>
@@ -11553,7 +11555,7 @@
         <v>10612</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E98" s="20">
         <v>10613</v>
@@ -11568,10 +11570,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I98" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J98" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K98" s="11">
         <v>0.32</v>
@@ -11817,7 +11819,7 @@
         <v>10613</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E99" s="20">
         <v>10614</v>
@@ -11832,10 +11834,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I99" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J99" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K99" s="11">
         <v>0.36</v>
@@ -12081,7 +12083,7 @@
         <v>10614</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E100" s="20">
         <v>10615</v>
@@ -12096,10 +12098,10 @@
         <v>0.01</v>
       </c>
       <c r="I100" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J100" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="J100" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="K100" s="11">
         <v>0.4</v>
@@ -12345,7 +12347,7 @@
         <v>10615</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E101" s="14">
         <v>0</v>
@@ -12360,10 +12362,10 @@
         <v>0.01</v>
       </c>
       <c r="I101" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J101" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="J101" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="K101" s="11">
         <v>0.45</v>
@@ -12609,7 +12611,7 @@
         <v>10700</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E102" s="11">
         <v>10701</v>
@@ -12627,7 +12629,7 @@
         <v>19000</v>
       </c>
       <c r="J102" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K102" s="11">
         <v>0</v>
@@ -12647,7 +12649,7 @@
         <v>10701</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E103" s="10">
         <v>10702</v>
@@ -12665,7 +12667,7 @@
         <v>28500</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K103" s="11">
         <v>0.02</v>
@@ -12685,7 +12687,7 @@
         <v>10702</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E104" s="10">
         <v>10703</v>
@@ -12703,7 +12705,7 @@
         <v>38000</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K104" s="11">
         <v>0.04</v>
@@ -12723,7 +12725,7 @@
         <v>10703</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E105" s="10">
         <v>10704</v>
@@ -12741,7 +12743,7 @@
         <v>47500</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K105" s="11">
         <v>0.06</v>
@@ -12761,7 +12763,7 @@
         <v>10704</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E106" s="10">
         <v>10705</v>
@@ -12779,7 +12781,7 @@
         <v>57000</v>
       </c>
       <c r="J106" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K106" s="11">
         <v>0.08</v>
@@ -12799,7 +12801,7 @@
         <v>10705</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E107" s="10">
         <v>10706</v>
@@ -12817,7 +12819,7 @@
         <v>76000</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K107" s="11">
         <v>0.1</v>
@@ -12837,7 +12839,7 @@
         <v>10706</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E108" s="10">
         <v>10707</v>
@@ -12855,7 +12857,7 @@
         <v>95000</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K108" s="11">
         <v>0.125</v>
@@ -12875,7 +12877,7 @@
         <v>10707</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E109" s="10">
         <v>10708</v>
@@ -12893,7 +12895,7 @@
         <v>114000</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K109" s="11">
         <v>0.15</v>
@@ -12913,7 +12915,7 @@
         <v>10708</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E110" s="10">
         <v>10709</v>
@@ -12931,7 +12933,7 @@
         <v>152000</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K110" s="11">
         <v>0.17499999999999999</v>
@@ -12951,7 +12953,7 @@
         <v>10709</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E111" s="10">
         <v>10710</v>
@@ -12969,7 +12971,7 @@
         <v>190000</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K111" s="11">
         <v>0.2</v>
@@ -12989,7 +12991,7 @@
         <v>10710</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E112" s="10">
         <v>10711</v>
@@ -13004,10 +13006,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K112" s="11">
         <v>0.24</v>
@@ -13027,7 +13029,7 @@
         <v>10711</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E113" s="10">
         <v>10712</v>
@@ -13042,10 +13044,10 @@
         <v>0.05</v>
       </c>
       <c r="I113" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J113" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K113" s="11">
         <v>0.28000000000000003</v>
@@ -13291,7 +13293,7 @@
         <v>10712</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E114" s="12">
         <v>10713</v>
@@ -13306,10 +13308,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I114" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J114" s="17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K114" s="11">
         <v>0.32</v>
@@ -13555,7 +13557,7 @@
         <v>10713</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E115" s="12">
         <v>10714</v>
@@ -13570,10 +13572,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J115" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K115" s="11">
         <v>0.36</v>
@@ -13819,7 +13821,7 @@
         <v>10714</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E116" s="12">
         <v>10715</v>
@@ -13834,10 +13836,10 @@
         <v>0.01</v>
       </c>
       <c r="I116" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J116" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="J116" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="K116" s="11">
         <v>0.4</v>
@@ -14083,7 +14085,7 @@
         <v>10715</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E117" s="14">
         <v>0</v>
@@ -14098,10 +14100,10 @@
         <v>0.01</v>
       </c>
       <c r="I117" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J117" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="J117" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="K117" s="11">
         <v>0.45</v>
@@ -14347,7 +14349,7 @@
         <v>10800</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E118" s="11">
         <v>10801</v>
@@ -14365,7 +14367,7 @@
         <v>4000</v>
       </c>
       <c r="J118" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K118" s="11">
         <v>0</v>
@@ -14385,7 +14387,7 @@
         <v>10801</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E119" s="10">
         <v>10802</v>
@@ -14403,7 +14405,7 @@
         <v>6000</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K119" s="11">
         <v>0.02</v>
@@ -14423,7 +14425,7 @@
         <v>10802</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E120" s="10">
         <v>10803</v>
@@ -14441,7 +14443,7 @@
         <v>8000</v>
       </c>
       <c r="J120" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K120" s="11">
         <v>0.04</v>
@@ -14461,7 +14463,7 @@
         <v>10803</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E121" s="10">
         <v>10804</v>
@@ -14479,7 +14481,7 @@
         <v>10000</v>
       </c>
       <c r="J121" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K121" s="11">
         <v>0.06</v>
@@ -14499,7 +14501,7 @@
         <v>10804</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E122" s="10">
         <v>10805</v>
@@ -14517,7 +14519,7 @@
         <v>12000</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K122" s="11">
         <v>0.08</v>
@@ -14537,7 +14539,7 @@
         <v>10805</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E123" s="10">
         <v>10806</v>
@@ -14555,7 +14557,7 @@
         <v>16000</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K123" s="11">
         <v>0.1</v>
@@ -14575,7 +14577,7 @@
         <v>10806</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E124" s="10">
         <v>10807</v>
@@ -14593,7 +14595,7 @@
         <v>20000</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K124" s="11">
         <v>0.125</v>
@@ -14613,7 +14615,7 @@
         <v>10807</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E125" s="10">
         <v>10808</v>
@@ -14631,7 +14633,7 @@
         <v>24000</v>
       </c>
       <c r="J125" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K125" s="11">
         <v>0.15</v>
@@ -14651,7 +14653,7 @@
         <v>10808</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E126" s="10">
         <v>10809</v>
@@ -14669,7 +14671,7 @@
         <v>32000</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K126" s="11">
         <v>0.17499999999999999</v>
@@ -14689,7 +14691,7 @@
         <v>10809</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E127" s="10">
         <v>10810</v>
@@ -14707,7 +14709,7 @@
         <v>40000</v>
       </c>
       <c r="J127" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K127" s="11">
         <v>0.2</v>
@@ -14727,7 +14729,7 @@
         <v>10810</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E128" s="10">
         <v>10811</v>
@@ -14742,10 +14744,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J128" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K128" s="11">
         <v>0.24</v>
@@ -14765,7 +14767,7 @@
         <v>10811</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E129" s="10">
         <v>10812</v>
@@ -14780,10 +14782,10 @@
         <v>0.05</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K129" s="11">
         <v>0.28000000000000003</v>
@@ -15029,7 +15031,7 @@
         <v>10812</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E130" s="9">
         <v>10813</v>
@@ -15044,10 +15046,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K130" s="11">
         <v>0.32</v>
@@ -15293,7 +15295,7 @@
         <v>10813</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E131" s="9">
         <v>10814</v>
@@ -15308,10 +15310,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J131" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K131" s="11">
         <v>0.36</v>
@@ -15557,7 +15559,7 @@
         <v>10814</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E132" s="9">
         <v>10815</v>
@@ -15572,10 +15574,10 @@
         <v>0.01</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K132" s="11">
         <v>0.4</v>
@@ -15821,7 +15823,7 @@
         <v>10815</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E133" s="14">
         <v>0</v>
@@ -15836,10 +15838,10 @@
         <v>0.01</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K133" s="11">
         <v>0.45</v>
@@ -16085,7 +16087,7 @@
         <v>10900</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E134" s="11">
         <v>10901</v>
@@ -16103,7 +16105,7 @@
         <v>6000</v>
       </c>
       <c r="J134" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K134" s="11">
         <v>0</v>
@@ -16123,7 +16125,7 @@
         <v>10901</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E135" s="10">
         <v>10902</v>
@@ -16141,7 +16143,7 @@
         <v>9000</v>
       </c>
       <c r="J135" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K135" s="11">
         <v>0.02</v>
@@ -16161,7 +16163,7 @@
         <v>10902</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E136" s="10">
         <v>10903</v>
@@ -16179,7 +16181,7 @@
         <v>12000</v>
       </c>
       <c r="J136" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K136" s="11">
         <v>0.04</v>
@@ -16199,7 +16201,7 @@
         <v>10903</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E137" s="10">
         <v>10904</v>
@@ -16217,7 +16219,7 @@
         <v>15000</v>
       </c>
       <c r="J137" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K137" s="11">
         <v>0.06</v>
@@ -16237,7 +16239,7 @@
         <v>10904</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E138" s="10">
         <v>10905</v>
@@ -16255,7 +16257,7 @@
         <v>18000</v>
       </c>
       <c r="J138" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K138" s="11">
         <v>0.08</v>
@@ -16275,7 +16277,7 @@
         <v>10905</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E139" s="10">
         <v>10906</v>
@@ -16293,7 +16295,7 @@
         <v>24000</v>
       </c>
       <c r="J139" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K139" s="11">
         <v>0.1</v>
@@ -16313,7 +16315,7 @@
         <v>10906</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E140" s="10">
         <v>10907</v>
@@ -16331,7 +16333,7 @@
         <v>30000</v>
       </c>
       <c r="J140" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K140" s="11">
         <v>0.125</v>
@@ -16351,7 +16353,7 @@
         <v>10907</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E141" s="10">
         <v>10908</v>
@@ -16369,7 +16371,7 @@
         <v>36000</v>
       </c>
       <c r="J141" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K141" s="11">
         <v>0.15</v>
@@ -16389,7 +16391,7 @@
         <v>10908</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E142" s="10">
         <v>10909</v>
@@ -16407,7 +16409,7 @@
         <v>48000</v>
       </c>
       <c r="J142" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K142" s="11">
         <v>0.17499999999999999</v>
@@ -16427,7 +16429,7 @@
         <v>10909</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E143" s="10">
         <v>10910</v>
@@ -16445,7 +16447,7 @@
         <v>60000</v>
       </c>
       <c r="J143" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K143" s="11">
         <v>0.2</v>
@@ -16465,7 +16467,7 @@
         <v>10910</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E144" s="10">
         <v>10911</v>
@@ -16480,10 +16482,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J144" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K144" s="11">
         <v>0.24</v>
@@ -16503,7 +16505,7 @@
         <v>10911</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E145" s="10">
         <v>10912</v>
@@ -16518,10 +16520,10 @@
         <v>0.05</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J145" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K145" s="11">
         <v>0.28000000000000003</v>
@@ -16767,7 +16769,7 @@
         <v>10912</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E146" s="12">
         <v>10913</v>
@@ -16782,10 +16784,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I146" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K146" s="11">
         <v>0.32</v>
@@ -17031,7 +17033,7 @@
         <v>10913</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E147" s="12">
         <v>10914</v>
@@ -17046,10 +17048,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I147" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K147" s="11">
         <v>0.36</v>
@@ -17295,7 +17297,7 @@
         <v>10914</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E148" s="12">
         <v>10915</v>
@@ -17310,10 +17312,10 @@
         <v>0.01</v>
       </c>
       <c r="I148" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K148" s="11">
         <v>0.4</v>
@@ -17559,7 +17561,7 @@
         <v>10915</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E149" s="14">
         <v>0</v>
@@ -17574,10 +17576,10 @@
         <v>0.01</v>
       </c>
       <c r="I149" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J149" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K149" s="11">
         <v>0.45</v>
@@ -17823,7 +17825,7 @@
         <v>11000</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E150" s="11">
         <v>11001</v>
@@ -17841,7 +17843,7 @@
         <v>4000</v>
       </c>
       <c r="J150" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K150" s="11">
         <v>0</v>
@@ -17861,7 +17863,7 @@
         <v>11001</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E151" s="10">
         <v>11002</v>
@@ -17879,7 +17881,7 @@
         <v>6000</v>
       </c>
       <c r="J151" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K151" s="11">
         <v>0.02</v>
@@ -17899,7 +17901,7 @@
         <v>11002</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E152" s="10">
         <v>11003</v>
@@ -17917,7 +17919,7 @@
         <v>8000</v>
       </c>
       <c r="J152" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K152" s="11">
         <v>0.04</v>
@@ -17937,7 +17939,7 @@
         <v>11003</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E153" s="10">
         <v>11004</v>
@@ -17955,7 +17957,7 @@
         <v>10000</v>
       </c>
       <c r="J153" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K153" s="11">
         <v>0.06</v>
@@ -17975,7 +17977,7 @@
         <v>11004</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E154" s="10">
         <v>11005</v>
@@ -17993,7 +17995,7 @@
         <v>12000</v>
       </c>
       <c r="J154" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K154" s="11">
         <v>0.08</v>
@@ -18013,7 +18015,7 @@
         <v>11005</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E155" s="10">
         <v>11006</v>
@@ -18031,7 +18033,7 @@
         <v>16000</v>
       </c>
       <c r="J155" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K155" s="11">
         <v>0.1</v>
@@ -18051,7 +18053,7 @@
         <v>11006</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E156" s="10">
         <v>11007</v>
@@ -18069,7 +18071,7 @@
         <v>20000</v>
       </c>
       <c r="J156" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K156" s="11">
         <v>0.125</v>
@@ -18089,7 +18091,7 @@
         <v>11007</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E157" s="10">
         <v>11008</v>
@@ -18107,7 +18109,7 @@
         <v>24000</v>
       </c>
       <c r="J157" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K157" s="11">
         <v>0.15</v>
@@ -18127,7 +18129,7 @@
         <v>11008</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E158" s="10">
         <v>11009</v>
@@ -18145,7 +18147,7 @@
         <v>32000</v>
       </c>
       <c r="J158" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K158" s="11">
         <v>0.17499999999999999</v>
@@ -18165,7 +18167,7 @@
         <v>11009</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E159" s="10">
         <v>11010</v>
@@ -18183,7 +18185,7 @@
         <v>40000</v>
       </c>
       <c r="J159" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K159" s="11">
         <v>0.2</v>
@@ -18203,7 +18205,7 @@
         <v>11010</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E160" s="10">
         <v>11011</v>
@@ -18218,10 +18220,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J160" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K160" s="11">
         <v>0.24</v>
@@ -18241,7 +18243,7 @@
         <v>11011</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E161" s="10">
         <v>11012</v>
@@ -18256,10 +18258,10 @@
         <v>0.05</v>
       </c>
       <c r="I161" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K161" s="11">
         <v>0.28000000000000003</v>
@@ -18505,7 +18507,7 @@
         <v>11012</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E162" s="12">
         <v>11013</v>
@@ -18520,10 +18522,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I162" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K162" s="11">
         <v>0.32</v>
@@ -18769,7 +18771,7 @@
         <v>11013</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E163" s="12">
         <v>11014</v>
@@ -18784,10 +18786,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J163" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K163" s="11">
         <v>0.36</v>
@@ -19033,7 +19035,7 @@
         <v>11014</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E164" s="12">
         <v>11015</v>
@@ -19048,10 +19050,10 @@
         <v>0.01</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J164" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K164" s="11">
         <v>0.4</v>
@@ -19297,7 +19299,7 @@
         <v>11015</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E165" s="14">
         <v>0</v>
@@ -19312,10 +19314,10 @@
         <v>0.01</v>
       </c>
       <c r="I165" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J165" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K165" s="11">
         <v>0.45</v>
@@ -19561,7 +19563,7 @@
         <v>11100</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E166" s="11">
         <v>11101</v>
@@ -19579,7 +19581,7 @@
         <v>5000</v>
       </c>
       <c r="J166" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K166" s="11">
         <v>0</v>
@@ -19599,7 +19601,7 @@
         <v>11101</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E167" s="10">
         <v>11102</v>
@@ -19617,7 +19619,7 @@
         <v>7500</v>
       </c>
       <c r="J167" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K167" s="11">
         <v>0.02</v>
@@ -19637,7 +19639,7 @@
         <v>11102</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E168" s="10">
         <v>11103</v>
@@ -19655,7 +19657,7 @@
         <v>10000</v>
       </c>
       <c r="J168" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K168" s="11">
         <v>0.04</v>
@@ -19675,7 +19677,7 @@
         <v>11103</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E169" s="10">
         <v>11104</v>
@@ -19693,7 +19695,7 @@
         <v>12500</v>
       </c>
       <c r="J169" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K169" s="11">
         <v>0.06</v>
@@ -19713,7 +19715,7 @@
         <v>11104</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E170" s="10">
         <v>11105</v>
@@ -19731,7 +19733,7 @@
         <v>15000</v>
       </c>
       <c r="J170" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K170" s="11">
         <v>0.08</v>
@@ -19751,7 +19753,7 @@
         <v>11105</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E171" s="10">
         <v>11106</v>
@@ -19769,7 +19771,7 @@
         <v>20000</v>
       </c>
       <c r="J171" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K171" s="11">
         <v>0.1</v>
@@ -19789,7 +19791,7 @@
         <v>11106</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E172" s="10">
         <v>11107</v>
@@ -19807,7 +19809,7 @@
         <v>25000</v>
       </c>
       <c r="J172" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K172" s="11">
         <v>0.125</v>
@@ -19827,7 +19829,7 @@
         <v>11107</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E173" s="10">
         <v>11108</v>
@@ -19845,7 +19847,7 @@
         <v>30000</v>
       </c>
       <c r="J173" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K173" s="11">
         <v>0.15</v>
@@ -19865,7 +19867,7 @@
         <v>11108</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E174" s="10">
         <v>11109</v>
@@ -19883,7 +19885,7 @@
         <v>40000</v>
       </c>
       <c r="J174" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K174" s="11">
         <v>0.17499999999999999</v>
@@ -19903,7 +19905,7 @@
         <v>11109</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E175" s="10">
         <v>11110</v>
@@ -19921,7 +19923,7 @@
         <v>50000</v>
       </c>
       <c r="J175" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K175" s="11">
         <v>0.2</v>
@@ -19941,7 +19943,7 @@
         <v>11110</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E176" s="10">
         <v>11111</v>
@@ -19956,10 +19958,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I176" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J176" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K176" s="11">
         <v>0.24</v>
@@ -19979,7 +19981,7 @@
         <v>11111</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E177" s="10">
         <v>11112</v>
@@ -19994,10 +19996,10 @@
         <v>0.05</v>
       </c>
       <c r="I177" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K177" s="11">
         <v>0.28000000000000003</v>
@@ -20243,7 +20245,7 @@
         <v>11112</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E178" s="12">
         <v>11113</v>
@@ -20258,10 +20260,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J178" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K178" s="11">
         <v>0.32</v>
@@ -20507,7 +20509,7 @@
         <v>11113</v>
       </c>
       <c r="D179" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E179" s="12">
         <v>11114</v>
@@ -20522,10 +20524,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I179" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K179" s="11">
         <v>0.36</v>
@@ -20771,7 +20773,7 @@
         <v>11114</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E180" s="12">
         <v>11115</v>
@@ -20786,10 +20788,10 @@
         <v>0.01</v>
       </c>
       <c r="I180" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J180" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K180" s="11">
         <v>0.4</v>
@@ -21035,7 +21037,7 @@
         <v>11115</v>
       </c>
       <c r="D181" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E181" s="14">
         <v>0</v>
@@ -21050,10 +21052,10 @@
         <v>0.01</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J181" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K181" s="11">
         <v>0.45</v>
@@ -21299,7 +21301,7 @@
         <v>11200</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E182" s="11">
         <v>11201</v>
@@ -21317,7 +21319,7 @@
         <v>5500</v>
       </c>
       <c r="J182" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K182" s="11">
         <v>0</v>
@@ -21337,7 +21339,7 @@
         <v>11201</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E183" s="10">
         <v>11202</v>
@@ -21355,7 +21357,7 @@
         <v>8250</v>
       </c>
       <c r="J183" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K183" s="11">
         <v>0.02</v>
@@ -21375,7 +21377,7 @@
         <v>11202</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E184" s="10">
         <v>11203</v>
@@ -21393,7 +21395,7 @@
         <v>11000</v>
       </c>
       <c r="J184" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K184" s="11">
         <v>0.04</v>
@@ -21413,7 +21415,7 @@
         <v>11203</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E185" s="10">
         <v>11204</v>
@@ -21431,7 +21433,7 @@
         <v>13750</v>
       </c>
       <c r="J185" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K185" s="11">
         <v>0.06</v>
@@ -21451,7 +21453,7 @@
         <v>11204</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E186" s="10">
         <v>11205</v>
@@ -21469,7 +21471,7 @@
         <v>16500</v>
       </c>
       <c r="J186" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K186" s="11">
         <v>0.08</v>
@@ -21489,7 +21491,7 @@
         <v>11205</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E187" s="10">
         <v>11206</v>
@@ -21507,7 +21509,7 @@
         <v>22000</v>
       </c>
       <c r="J187" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K187" s="11">
         <v>0.1</v>
@@ -21527,7 +21529,7 @@
         <v>11206</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E188" s="10">
         <v>11207</v>
@@ -21545,7 +21547,7 @@
         <v>27500</v>
       </c>
       <c r="J188" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K188" s="11">
         <v>0.125</v>
@@ -21565,7 +21567,7 @@
         <v>11207</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E189" s="10">
         <v>11208</v>
@@ -21583,7 +21585,7 @@
         <v>33000</v>
       </c>
       <c r="J189" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K189" s="11">
         <v>0.15</v>
@@ -21603,7 +21605,7 @@
         <v>11208</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E190" s="10">
         <v>11209</v>
@@ -21621,7 +21623,7 @@
         <v>44000</v>
       </c>
       <c r="J190" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K190" s="11">
         <v>0.17499999999999999</v>
@@ -21641,7 +21643,7 @@
         <v>11209</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E191" s="10">
         <v>11210</v>
@@ -21659,7 +21661,7 @@
         <v>55000</v>
       </c>
       <c r="J191" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K191" s="11">
         <v>0.2</v>
@@ -21679,7 +21681,7 @@
         <v>11210</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E192" s="10">
         <v>11211</v>
@@ -21694,10 +21696,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I192" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J192" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K192" s="11">
         <v>0.24</v>
@@ -21717,7 +21719,7 @@
         <v>11211</v>
       </c>
       <c r="D193" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E193" s="10">
         <v>11212</v>
@@ -21732,10 +21734,10 @@
         <v>0.05</v>
       </c>
       <c r="I193" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J193" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K193" s="11">
         <v>0.28000000000000003</v>
@@ -21981,7 +21983,7 @@
         <v>11212</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E194" s="12">
         <v>11213</v>
@@ -21996,10 +21998,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J194" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K194" s="11">
         <v>0.32</v>
@@ -22245,7 +22247,7 @@
         <v>11213</v>
       </c>
       <c r="D195" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E195" s="12">
         <v>11214</v>
@@ -22260,10 +22262,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J195" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K195" s="11">
         <v>0.36</v>
@@ -22509,7 +22511,7 @@
         <v>11214</v>
       </c>
       <c r="D196" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E196" s="12">
         <v>11215</v>
@@ -22524,10 +22526,10 @@
         <v>0.01</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J196" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K196" s="11">
         <v>0.4</v>
@@ -22773,7 +22775,7 @@
         <v>11215</v>
       </c>
       <c r="D197" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E197" s="14">
         <v>0</v>
@@ -22788,10 +22790,10 @@
         <v>0.01</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K197" s="11">
         <v>0.45</v>
@@ -23037,7 +23039,7 @@
         <v>11300</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E198" s="11">
         <v>11301</v>
@@ -23055,7 +23057,7 @@
         <v>6500</v>
       </c>
       <c r="J198" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K198" s="11">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>11301</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E199" s="10">
         <v>11302</v>
@@ -23093,7 +23095,7 @@
         <v>9750</v>
       </c>
       <c r="J199" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K199" s="11">
         <v>0.02</v>
@@ -23113,7 +23115,7 @@
         <v>11302</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E200" s="10">
         <v>11303</v>
@@ -23131,7 +23133,7 @@
         <v>13000</v>
       </c>
       <c r="J200" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K200" s="11">
         <v>0.04</v>
@@ -23151,7 +23153,7 @@
         <v>11303</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E201" s="10">
         <v>11304</v>
@@ -23169,7 +23171,7 @@
         <v>16250</v>
       </c>
       <c r="J201" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K201" s="11">
         <v>0.06</v>
@@ -23189,7 +23191,7 @@
         <v>11304</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E202" s="10">
         <v>11305</v>
@@ -23207,7 +23209,7 @@
         <v>19500</v>
       </c>
       <c r="J202" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K202" s="11">
         <v>0.08</v>
@@ -23227,7 +23229,7 @@
         <v>11305</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E203" s="10">
         <v>11306</v>
@@ -23245,7 +23247,7 @@
         <v>26000</v>
       </c>
       <c r="J203" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K203" s="11">
         <v>0.1</v>
@@ -23265,7 +23267,7 @@
         <v>11306</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E204" s="10">
         <v>11307</v>
@@ -23283,7 +23285,7 @@
         <v>32500</v>
       </c>
       <c r="J204" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K204" s="11">
         <v>0.125</v>
@@ -23303,7 +23305,7 @@
         <v>11307</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E205" s="10">
         <v>11308</v>
@@ -23321,7 +23323,7 @@
         <v>39000</v>
       </c>
       <c r="J205" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K205" s="11">
         <v>0.15</v>
@@ -23341,7 +23343,7 @@
         <v>11308</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E206" s="10">
         <v>11309</v>
@@ -23359,7 +23361,7 @@
         <v>52000</v>
       </c>
       <c r="J206" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K206" s="11">
         <v>0.17499999999999999</v>
@@ -23379,7 +23381,7 @@
         <v>11309</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E207" s="10">
         <v>11310</v>
@@ -23397,7 +23399,7 @@
         <v>65000</v>
       </c>
       <c r="J207" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K207" s="11">
         <v>0.2</v>
@@ -23417,7 +23419,7 @@
         <v>11310</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E208" s="10">
         <v>11311</v>
@@ -23432,10 +23434,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I208" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J208" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K208" s="11">
         <v>0.24</v>
@@ -23455,7 +23457,7 @@
         <v>11311</v>
       </c>
       <c r="D209" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E209" s="10">
         <v>11312</v>
@@ -23470,10 +23472,10 @@
         <v>0.05</v>
       </c>
       <c r="I209" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J209" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K209" s="11">
         <v>0.28000000000000003</v>
@@ -23719,7 +23721,7 @@
         <v>11312</v>
       </c>
       <c r="D210" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E210" s="12">
         <v>11313</v>
@@ -23734,10 +23736,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I210" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J210" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K210" s="11">
         <v>0.32</v>
@@ -23983,7 +23985,7 @@
         <v>11313</v>
       </c>
       <c r="D211" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E211" s="12">
         <v>11314</v>
@@ -23998,10 +24000,10 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I211" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J211" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K211" s="11">
         <v>0.36</v>
@@ -24247,7 +24249,7 @@
         <v>11314</v>
       </c>
       <c r="D212" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E212" s="12">
         <v>11315</v>
@@ -24262,10 +24264,10 @@
         <v>0.01</v>
       </c>
       <c r="I212" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J212" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K212" s="11">
         <v>0.4</v>
@@ -24511,7 +24513,7 @@
         <v>11315</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E213" s="14">
         <v>0</v>
@@ -24526,10 +24528,10 @@
         <v>0.01</v>
       </c>
       <c r="I213" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J213" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K213" s="11">
         <v>0.45</v>
